--- a/Data/Figure4/Figure4.xlsx
+++ b/Data/Figure4/Figure4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopher.illingworth/Documents/Projects/MPhil_WithinHost/Writeup/Data/Figure4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopher.illingworth/Documents/GitHub/IVY/Data/Figure4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F03E47-79FB-8446-A944-4D57EC647859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C15ABED-17D3-AD4C-9999-06D9463A30E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8740" yWindow="7680" windowWidth="20920" windowHeight="17540" xr2:uid="{210ED2D4-E90A-A448-9722-104D9F90B609}"/>
+    <workbookView xWindow="3640" yWindow="1140" windowWidth="20920" windowHeight="17540" xr2:uid="{210ED2D4-E90A-A448-9722-104D9F90B609}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895BF085-2077-EC45-A37E-B67D09A2DA87}">
-  <dimension ref="B2:C65"/>
+  <dimension ref="B2:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C65"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -446,7 +446,7 @@
         <v>312</v>
       </c>
       <c r="C3">
-        <v>0.87167799999999995</v>
+        <v>0.87167899999999998</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
@@ -454,7 +454,7 @@
         <v>1058</v>
       </c>
       <c r="C4">
-        <v>0.71883200000000003</v>
+        <v>0.85538599999999998</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
@@ -462,7 +462,7 @@
         <v>1749</v>
       </c>
       <c r="C5">
-        <v>0.87167799999999995</v>
+        <v>0.87167899999999998</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
@@ -478,7 +478,7 @@
         <v>2507</v>
       </c>
       <c r="C7">
-        <v>0.87167799999999995</v>
+        <v>0.87167899999999998</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
@@ -486,7 +486,7 @@
         <v>2917</v>
       </c>
       <c r="C8">
-        <v>0.71883200000000003</v>
+        <v>0.85538599999999998</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
@@ -526,7 +526,7 @@
         <v>5392</v>
       </c>
       <c r="C13">
-        <v>0.50914499999999996</v>
+        <v>0.50915100000000002</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
@@ -566,7 +566,7 @@
         <v>8250</v>
       </c>
       <c r="C18">
-        <v>1.85836</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
@@ -614,7 +614,7 @@
         <v>11082</v>
       </c>
       <c r="C24">
-        <v>0.87167799999999995</v>
+        <v>0.87167899999999998</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
@@ -622,7 +622,7 @@
         <v>11429</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0.79365200000000002</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
@@ -638,7 +638,7 @@
         <v>11769</v>
       </c>
       <c r="C27">
-        <v>0.50914499999999996</v>
+        <v>0.50915100000000002</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
@@ -654,7 +654,7 @@
         <v>13429</v>
       </c>
       <c r="C29">
-        <v>0.87167799999999995</v>
+        <v>0.87167899999999998</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
@@ -678,7 +678,7 @@
         <v>15266</v>
       </c>
       <c r="C32">
-        <v>0.71883200000000003</v>
+        <v>0.85538599999999998</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
@@ -718,7 +718,7 @@
         <v>18038</v>
       </c>
       <c r="C37">
-        <v>0.87167799999999995</v>
+        <v>0.87167899999999998</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
@@ -726,7 +726,7 @@
         <v>19483</v>
       </c>
       <c r="C38">
-        <v>0.32750000000000001</v>
+        <v>0.239422</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
@@ -742,7 +742,7 @@
         <v>20753</v>
       </c>
       <c r="C40">
-        <v>0.53693000000000002</v>
+        <v>0.52106799999999998</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
@@ -790,7 +790,7 @@
         <v>22280</v>
       </c>
       <c r="C46">
-        <v>0.50914499999999996</v>
+        <v>0.50915100000000002</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.2">
@@ -806,7 +806,7 @@
         <v>22549</v>
       </c>
       <c r="C48">
-        <v>0.50914499999999996</v>
+        <v>0.50915100000000002</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.2">
@@ -838,7 +838,7 @@
         <v>25562</v>
       </c>
       <c r="C52">
-        <v>0.71883200000000003</v>
+        <v>0.85538599999999998</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.2">
@@ -846,7 +846,7 @@
         <v>25915</v>
       </c>
       <c r="C53">
-        <v>0.53693000000000002</v>
+        <v>0.52106799999999998</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.2">
@@ -878,7 +878,7 @@
         <v>26894</v>
       </c>
       <c r="C57">
-        <v>0.50914499999999996</v>
+        <v>0.50915100000000002</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.2">
@@ -907,42 +907,34 @@
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B61">
-        <v>28313</v>
+        <v>28355</v>
       </c>
       <c r="C61">
-        <v>0.71883200000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B62">
-        <v>28355</v>
+        <v>29094</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0.86270199999999997</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B63">
-        <v>29094</v>
+        <v>29554</v>
       </c>
       <c r="C63">
-        <v>0.86270199999999997</v>
+        <v>0.86239100000000002</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B64">
-        <v>29554</v>
+        <v>29824</v>
       </c>
       <c r="C64">
-        <v>0.86239100000000002</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B65">
-        <v>29824</v>
-      </c>
-      <c r="C65">
-        <v>0.88378900000000005</v>
+        <v>0.88379200000000002</v>
       </c>
     </row>
   </sheetData>
